--- a/cea/databases/SG/archetypes/use_types/use_types_properties.xlsx
+++ b/cea/databases/SG/archetypes/use_types/use_types_properties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="19610" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Ths_set_C</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Ev_kW</t>
   </si>
 </sst>
 </file>
@@ -1020,21 +1023,21 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1564,28 +1567,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="8.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1625,8 +1628,11 @@
       <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1666,8 +1672,11 @@
       <c r="M2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1707,8 +1716,11 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1748,8 +1760,11 @@
       <c r="M4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1789,8 +1804,11 @@
       <c r="M5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1830,8 +1848,11 @@
       <c r="M6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1871,8 +1892,11 @@
       <c r="M7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1912,8 +1936,11 @@
       <c r="M8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1953,8 +1980,11 @@
       <c r="M9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1994,8 +2024,11 @@
       <c r="M10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2035,8 +2068,11 @@
       <c r="M11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -2076,8 +2112,11 @@
       <c r="M12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -2117,8 +2156,11 @@
       <c r="M13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2158,8 +2200,11 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2199,8 +2244,11 @@
       <c r="M15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2240,8 +2288,11 @@
       <c r="M16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2281,8 +2332,11 @@
       <c r="M17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -2325,8 +2379,11 @@
       <c r="M18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -2366,8 +2423,11 @@
       <c r="M19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2405,6 +2465,9 @@
         <v>0</v>
       </c>
       <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
         <v>0</v>
       </c>
     </row>

--- a/cea/databases/SG/archetypes/use_types/use_types_properties.xlsx
+++ b/cea/databases/SG/archetypes/use_types/use_types_properties.xlsx
@@ -147,7 +147,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>Ev_kW</t>
+    <t>Ev_kWveh</t>
   </si>
 </sst>
 </file>
